--- a/excel/parking_fee_202310.xlsx
+++ b/excel/parking_fee_202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>10/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>10/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>10/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>10/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>10/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>10/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>10/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>10/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>10/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>10/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>10/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>10/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>10/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>10/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>10/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>10/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>10/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>10/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>10/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>10/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>10/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>10/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>10/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>10/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>10/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>10/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>10/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>10/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>10/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -640,7 +645,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -680,12 +685,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -776,23 +781,28 @@
       <c r="AH2" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>720</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -812,7 +822,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -847,17 +857,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -872,7 +882,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -882,17 +892,17 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -948,23 +958,28 @@
       <c r="AH3" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>2438</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1019,7 +1034,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1120,23 +1135,28 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1151,7 +1171,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>420</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1166,7 +1186,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>535</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1236,7 +1256,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1292,23 +1312,28 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1455</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1318,27 +1343,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1363,17 +1388,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1393,7 +1418,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1464,23 +1489,28 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1785</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>吳國彰</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Justin Wu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1490,27 +1520,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1545,7 +1575,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1555,17 +1585,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1635,24 +1665,29 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>730</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1707,17 +1742,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>530</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>435</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1732,17 +1767,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>345</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1808,23 +1843,28 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1940</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1834,17 +1874,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1854,7 +1894,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1879,17 +1919,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1909,12 +1949,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1980,88 +2020,93 @@
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1320</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>380</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>340</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2076,17 +2121,17 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>240</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2151,54 +2196,59 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2995</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>195</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>535</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2223,17 +2273,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>105</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2243,7 +2293,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2323,24 +2373,29 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1690</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2350,17 +2405,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2370,7 +2425,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2390,22 +2445,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>45</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2415,17 +2470,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2495,24 +2550,29 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2522,17 +2582,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2542,7 +2602,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2562,22 +2622,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2592,22 +2652,22 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>235</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>195</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>255</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2667,126 +2727,131 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2215</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>謝芳琴</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Chin Hsieh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
           <t>180</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X14" t="inlineStr">
         <is>
           <t>0</t>
@@ -2839,49 +2904,54 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>900</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2906,22 +2976,22 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>40</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2931,27 +3001,27 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>80</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>230</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3011,126 +3081,131 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1225</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>魏毓瑩</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Mina Wei</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>0</t>
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>820</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3210,17 +3290,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3255,17 +3335,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3280,27 +3360,27 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3356,53 +3436,58 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3422,22 +3507,22 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>320</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3447,32 +3532,32 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>275</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>50</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3527,54 +3612,59 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2215</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>1600</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>謝芳琴</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chin Hsieh</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3594,59 +3684,59 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X19" t="inlineStr">
         <is>
           <t>0</t>
@@ -3699,44 +3789,49 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>990</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3746,7 +3841,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3766,22 +3861,22 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>90</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>70</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3791,32 +3886,32 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>160</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>90</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3871,54 +3966,59 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>1640</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>魏毓瑩</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mina Wei</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3938,17 +4038,17 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3963,32 +4063,32 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>440</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4043,7 +4143,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>1240</t>
         </is>
       </c>
     </row>
@@ -4060,39 +4165,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>400</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>0</t>
@@ -4110,14 +4215,14 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>0</t>
@@ -4125,14 +4230,14 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>180</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R22" t="inlineStr">
         <is>
           <t>0</t>
@@ -4214,6 +4319,11 @@
         </is>
       </c>
       <c r="AH22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>1885</t>
         </is>
@@ -4232,7 +4342,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4327,14 +4437,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
           <t>425</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X23" t="inlineStr">
         <is>
           <t>0</t>
@@ -4386,6 +4496,11 @@
         </is>
       </c>
       <c r="AH23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>425</t>
         </is>
@@ -4404,39 +4519,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>440</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>345</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>0</t>
@@ -4454,24 +4569,24 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>440</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>460</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>360</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>0</t>
@@ -4479,34 +4594,34 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
           <t>420</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>530</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X24" t="inlineStr">
         <is>
           <t>0</t>
@@ -4558,6 +4673,11 @@
         </is>
       </c>
       <c r="AH24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
         <is>
           <t>6085</t>
         </is>
@@ -4576,39 +4696,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>360</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>270</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>0</t>
@@ -4671,14 +4791,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X25" t="inlineStr">
         <is>
           <t>0</t>
@@ -4730,6 +4850,11 @@
         </is>
       </c>
       <c r="AH25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>1410</t>
         </is>
@@ -4748,42 +4873,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>225</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>430</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4803,19 +4928,19 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
           <t>0</t>
@@ -4823,34 +4948,34 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
           <t>270</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X26" t="inlineStr">
         <is>
           <t>0</t>
@@ -4903,7 +5028,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>2650</t>
         </is>
       </c>
     </row>
@@ -4920,39 +5050,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>425</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>185</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>0</t>
@@ -4970,24 +5100,24 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>0</t>
@@ -4995,24 +5125,24 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>260</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>0</t>
@@ -5074,6 +5204,11 @@
         </is>
       </c>
       <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>1895</t>
         </is>
@@ -5082,47 +5217,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5142,17 +5277,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -5167,32 +5302,32 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>60</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>240</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -5247,24 +5382,29 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>3730</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>1020</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5274,7 +5414,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5420,38 +5560,43 @@
       <c r="AH29" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5461,12 +5606,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>445</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5491,7 +5636,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>185</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5511,32 +5656,32 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>115</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -5591,126 +5736,131 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>1890</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X31" t="inlineStr">
         <is>
           <t>0</t>
@@ -5763,24 +5913,29 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>385</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5790,22 +5945,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>105</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5830,22 +5985,22 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>45</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>450</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5855,32 +6010,32 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5935,54 +6090,59 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>1880</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>630</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>400</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6002,22 +6162,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>560</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6027,32 +6187,32 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>375</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>195</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>320</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>340</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -6107,34 +6267,39 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>4130</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6144,17 +6309,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>195</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6179,17 +6344,17 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -6204,27 +6369,27 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>180</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>165</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -6279,54 +6444,59 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>1625</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>185</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6381,22 +6551,22 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>225</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -6451,126 +6621,131 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>1225</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>275</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>250</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
           <t>250</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X36" t="inlineStr">
         <is>
           <t>0</t>
@@ -6623,24 +6798,29 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>3260</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6650,27 +6830,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6690,22 +6870,22 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>165</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>135</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6720,27 +6900,27 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -6795,39 +6975,44 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>600</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6837,12 +7022,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6862,22 +7047,22 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>260</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>125</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6887,27 +7072,27 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -6967,124 +7152,129 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>1435</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>300</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>315</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -7139,54 +7329,59 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>2155</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -7206,22 +7401,22 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>235</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>190</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>190</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -7231,27 +7426,27 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>220</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>100</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>220</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7311,49 +7506,54 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>2040</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7383,17 +7583,17 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>325</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -7408,27 +7608,27 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>325</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7483,54 +7683,59 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>2910</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>220</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -7550,22 +7755,22 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>125</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -7575,32 +7780,32 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>260</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -7655,54 +7860,59 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>1940</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>280</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>480</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7722,17 +7932,17 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>270</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -7752,27 +7962,27 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>525</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -7827,124 +8037,129 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>3780</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>395</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>175</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>285</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -7999,44 +8214,49 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>1885</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8046,7 +8266,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -8066,7 +8286,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8076,7 +8296,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -8096,27 +8316,27 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>170</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -8171,39 +8391,44 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>1025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -8213,7 +8438,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8238,17 +8463,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -8263,27 +8488,27 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8343,24 +8568,29 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>285</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8370,27 +8600,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8415,12 +8645,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -8440,27 +8670,27 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>130</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -8515,24 +8745,29 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>1160</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8542,99 +8777,99 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
           <t>220</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X48" t="inlineStr">
         <is>
           <t>0</t>
@@ -8687,24 +8922,29 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>880</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8714,7 +8954,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8860,23 +9100,28 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8891,12 +9136,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8931,12 +9176,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -8961,7 +9206,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -8976,7 +9221,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -9031,54 +9276,59 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>330</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>400</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>400</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9103,17 +9353,17 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>400</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -9128,27 +9378,27 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -9203,39 +9453,44 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>4550</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -9245,7 +9500,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9270,12 +9525,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -9295,27 +9550,27 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9375,49 +9630,54 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>160</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>600</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -9442,22 +9702,22 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>300</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -9472,22 +9732,22 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>235</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -9547,54 +9807,59 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>1275</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>190</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -9619,17 +9884,17 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>330</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -9639,32 +9904,32 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>195</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>130</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>265</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -9719,24 +9984,29 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>2165</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>許信義</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Shinyi Hsu</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9751,7 +10021,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -9761,12 +10031,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -9791,7 +10061,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -9801,7 +10071,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -9826,7 +10096,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>270</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -9892,23 +10162,28 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>1760</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9918,22 +10193,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -9958,57 +10233,57 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -10063,54 +10338,59 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>400</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>180</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -10130,22 +10410,22 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>480</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>335</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -10155,32 +10435,32 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>335</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>255</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>315</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>255</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -10235,54 +10515,59 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>2170</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>3550</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>400</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>615</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>265</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>445</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -10302,22 +10587,22 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>475</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>400</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>425</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -10327,32 +10612,32 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>320</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>230</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>400</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>375</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -10407,24 +10692,29 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>4850</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10434,27 +10724,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>275</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>390</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>300</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10474,69 +10764,69 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
           <t>175</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z59" t="inlineStr">
         <is>
           <t>0</t>
@@ -10579,24 +10869,29 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>4975</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10606,64 +10901,64 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
           <t>220</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q60" t="inlineStr">
         <is>
           <t>0</t>
@@ -10671,32 +10966,32 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>150</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>310</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>225</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>170</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>595</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -10751,54 +11046,59 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>3065</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>525</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>425</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>295</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -10818,22 +11118,22 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>365</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>610</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -10843,32 +11143,32 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>310</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>350</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>340</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>450</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -10923,24 +11223,29 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>5435</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10950,27 +11255,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -10990,17 +11295,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>120</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -11015,12 +11320,12 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -11030,12 +11335,12 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -11095,49 +11400,54 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>900</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11162,17 +11472,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>165</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -11187,134 +11497,139 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
           <t>350</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>4975</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -11334,22 +11649,22 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>280</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>300</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -11359,27 +11674,27 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>190</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>410</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>175</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -11439,49 +11754,54 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>2600</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11506,22 +11826,22 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -11531,17 +11851,17 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>50</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -11551,12 +11871,12 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -11611,54 +11931,59 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>1015</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>225</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -11678,22 +12003,22 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>100</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -11703,27 +12028,27 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -11783,124 +12108,129 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>1040</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
           <t>130</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>260</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -11955,24 +12285,29 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>1535</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11987,92 +12322,92 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -12127,29 +12462,34 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -12159,92 +12499,92 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>240</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>165</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -12299,134 +12639,134 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>2165</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>2170</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>9,780</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>12,035</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>12,265</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5,850</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>9,680</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>9,505</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>10,150</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>10,265</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>6,665</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8,200</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>9,003</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9,405</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9,110</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -12471,179 +12811,12 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>8,840</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>10,765</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>11,010</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>4,400</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>7,855</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>8,235</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>8,860</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>9,305</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>6,355</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>7,505</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>8,540</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>7,815</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>7,030</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>107,220</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>122,908</t>
         </is>
       </c>
     </row>

--- a/excel/parking_fee_202310.xlsx
+++ b/excel/parking_fee_202310.xlsx
@@ -1423,7 +1423,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>1865</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2040</t>
         </is>
       </c>
     </row>
@@ -4352,27 +4352,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>470</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>230</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>245</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>530</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5494,17 +5494,17 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1355</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>1370</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>625</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>4765</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8226,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8256,87 +8256,87 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
           <t>150</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>255</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>85</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>220</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -8396,19 +8396,19 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>楊于箴</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sandy Yang</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8423,17 +8423,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>305</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -8493,22 +8493,22 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>40</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8573,19 +8573,19 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1320</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8600,97 +8600,97 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>170</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -8750,19 +8750,19 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1165</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8777,12 +8777,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -8857,17 +8857,17 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>240</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -8927,19 +8927,19 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>525</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8954,17 +8954,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8999,17 +8999,17 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9024,27 +9024,27 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>1170</t>
         </is>
       </c>
     </row>
@@ -11437,12 +11437,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11482,12 +11482,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -11502,22 +11502,22 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>210</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>325</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>2175</t>
         </is>
       </c>
     </row>
@@ -12666,27 +12666,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9,780</t>
+          <t>10,135</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>12,035</t>
+          <t>13,220</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12,265</t>
+          <t>13,160</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>5,850</t>
+          <t>6,750</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9,680</t>
+          <t>10,220</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -12711,17 +12711,17 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>9,505</t>
+          <t>10,040</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>10,150</t>
+          <t>10,675</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>10,265</t>
+          <t>11,720</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -12736,27 +12736,27 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>6,665</t>
+          <t>7,155</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>8,200</t>
+          <t>9,090</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>9,003</t>
+          <t>9,983</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>9,405</t>
+          <t>9,995</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>9,110</t>
+          <t>9,910</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>122,908</t>
+          <t>133,048</t>
         </is>
       </c>
     </row>
